--- a/organisation/references.xlsx
+++ b/organisation/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Dropbox/organisation/bildung/master/masterarbeit/thesis/organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC31EB-304E-4B4D-A262-19494A97D945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BAFE1F-68D6-6345-99BB-51AC5EF5D87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{FFAE9C56-69F3-BD4A-B22A-0FD8079B2D1A}"/>
+    <workbookView xWindow="-33900" yWindow="-15340" windowWidth="28800" windowHeight="16340" xr2:uid="{FFAE9C56-69F3-BD4A-B22A-0FD8079B2D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="4" r:id="rId1"/>
@@ -646,7 +646,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9506F6E-0203-D942-ABD2-E5EB181F5332}" name="Tabelle1" displayName="Tabelle1" ref="A1:I40" totalsRowShown="0">
   <autoFilter ref="A1:I40" xr:uid="{27CDB83A-A4A8-8C49-8CBE-BB957525D510}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
-    <sortCondition descending="1" ref="F1:F40"/>
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{21AA39B6-A7E7-2746-AB2E-148CA2B4C2E2}" name="Author"/>
@@ -1039,102 +1039,111 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F3">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>8777</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>5331</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -1142,68 +1151,71 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>1920</v>
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
       </c>
       <c r="D8">
-        <v>1848</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="F8">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>10253</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -1211,547 +1223,535 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="F10">
-        <v>2017</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
       </c>
       <c r="F13">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F14">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
       </c>
       <c r="D15">
-        <v>9850</v>
+        <v>323</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="F15">
-        <v>2016</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
       </c>
       <c r="F16">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
       </c>
       <c r="D17">
-        <v>9097</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="F17">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F18">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
       </c>
       <c r="F19">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>8484</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
       </c>
       <c r="F20">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>8777</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F21">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="F22">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>9097</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>8274</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F24">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F25">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>8274</v>
+        <v>10253</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>99</v>
+        <v>9850</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>8484</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F29">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
       </c>
       <c r="F30">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>592</v>
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
       </c>
       <c r="F31">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>167</v>
       </c>
       <c r="F32">
         <v>2009</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="F33">
         <v>2009</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>5331</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
+        <v>1920</v>
       </c>
       <c r="F34">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1779,111 +1779,111 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F36">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="F37">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F38">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>323</v>
+        <v>1848</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="F39">
-        <v>1986</v>
+        <v>2017</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
+        <v>592</v>
       </c>
       <c r="F40">
-        <v>1954</v>
+        <v>2010</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
